--- a/src/output/results7.xlsx
+++ b/src/output/results7.xlsx
@@ -346,2922 +346,2922 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5008.0</v>
+        <v>2920.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1223.0</v>
+        <v>1183.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5286.0</v>
+        <v>3709.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1220.0</v>
+        <v>1047.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4510.0</v>
+        <v>3262.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1424.0</v>
+        <v>1197.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4019.0</v>
+        <v>3075.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1982.0</v>
+        <v>1197.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3652.0</v>
+        <v>2774.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1965.0</v>
+        <v>1351.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3414.0</v>
+        <v>3634.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1895.0</v>
+        <v>1314.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3308.0</v>
+        <v>3222.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1626.0</v>
+        <v>1110.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3074.0</v>
+        <v>2516.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1561.0</v>
+        <v>1211.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3014.0</v>
+        <v>2523.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1482.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2738.0</v>
+        <v>2427.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1409.0</v>
+        <v>1175.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2774.0</v>
+        <v>2401.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1366.0</v>
+        <v>1152.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2813.0</v>
+        <v>2469.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1267.0</v>
+        <v>1075.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2689.0</v>
+        <v>2803.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1174.0</v>
+        <v>961.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2635.0</v>
+        <v>2769.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1184.0</v>
+        <v>998.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2744.0</v>
+        <v>2349.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1231.0</v>
+        <v>1042.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2635.0</v>
+        <v>2332.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1114.0</v>
+        <v>1048.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2621.0</v>
+        <v>2279.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1107.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2572.0</v>
+        <v>2225.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1208.0</v>
+        <v>977.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2497.0</v>
+        <v>2414.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1138.0</v>
+        <v>982.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2578.0</v>
+        <v>2658.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1101.0</v>
+        <v>905.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2549.0</v>
+        <v>2521.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1024.0</v>
+        <v>967.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2563.0</v>
+        <v>2199.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1092.0</v>
+        <v>957.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2542.0</v>
+        <v>2167.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1089.0</v>
+        <v>999.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2532.0</v>
+        <v>2237.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1099.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2509.0</v>
+        <v>2179.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1106.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2599.0</v>
+        <v>2304.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1077.0</v>
+        <v>920.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2531.0</v>
+        <v>2676.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1069.0</v>
+        <v>921.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2557.0</v>
+        <v>2669.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1087.0</v>
+        <v>929.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2677.0</v>
+        <v>2313.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1068.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2554.0</v>
+        <v>2324.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1050.0</v>
+        <v>986.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2530.0</v>
+        <v>2383.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1083.0</v>
+        <v>996.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3241.0</v>
+        <v>3282.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1092.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3280.0</v>
+        <v>3246.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1066.0</v>
+        <v>965.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3048.0</v>
+        <v>3467.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1181.0</v>
+        <v>1060.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3114.0</v>
+        <v>3381.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1342.0</v>
+        <v>1276.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4278.0</v>
+        <v>4305.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1344.0</v>
+        <v>1270.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3985.0</v>
+        <v>4314.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1300.0</v>
+        <v>1397.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4627.0</v>
+        <v>4965.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1465.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5179.0</v>
+        <v>5433.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1746.0</v>
+        <v>1771.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5825.0</v>
+        <v>6034.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1887.0</v>
+        <v>2012.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5176.0</v>
+        <v>6271.0</v>
       </c>
       <c r="B41" t="n">
-        <v>1972.0</v>
+        <v>2220.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4868.0</v>
+        <v>6196.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2264.0</v>
+        <v>2348.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7106.0</v>
+        <v>7547.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2437.0</v>
+        <v>2653.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6496.0</v>
+        <v>6984.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2352.0</v>
+        <v>2638.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7126.0</v>
+        <v>7701.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2523.0</v>
+        <v>2757.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7846.0</v>
+        <v>8292.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2877.0</v>
+        <v>3133.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8479.0</v>
+        <v>9115.0</v>
       </c>
       <c r="B47" t="n">
-        <v>2932.0</v>
+        <v>3167.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7610.0</v>
+        <v>9646.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3231.0</v>
+        <v>3394.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7129.0</v>
+        <v>9708.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3533.0</v>
+        <v>3731.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9985.0</v>
+        <v>10628.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3718.0</v>
+        <v>3903.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8935.0</v>
+        <v>9962.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3626.0</v>
+        <v>4052.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9651.0</v>
+        <v>10734.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3617.0</v>
+        <v>4210.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10475.0</v>
+        <v>11505.0</v>
       </c>
       <c r="B53" t="n">
-        <v>4004.0</v>
+        <v>4467.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11431.0</v>
+        <v>12474.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4099.0</v>
+        <v>4687.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9683.0</v>
+        <v>13058.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4402.0</v>
+        <v>4866.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9144.0</v>
+        <v>13539.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4777.0</v>
+        <v>5286.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12984.0</v>
+        <v>13993.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4995.0</v>
+        <v>5411.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11518.0</v>
+        <v>12865.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4672.0</v>
+        <v>5568.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>12291.0</v>
+        <v>14115.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4938.0</v>
+        <v>5976.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13048.0</v>
+        <v>14980.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5298.0</v>
+        <v>5966.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13773.0</v>
+        <v>15542.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5288.0</v>
+        <v>6148.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11953.0</v>
+        <v>16540.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5418.0</v>
+        <v>6251.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11062.0</v>
+        <v>17092.0</v>
       </c>
       <c r="B63" t="n">
-        <v>6017.0</v>
+        <v>6764.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>15227.0</v>
+        <v>17003.0</v>
       </c>
       <c r="B64" t="n">
-        <v>6184.0</v>
+        <v>6950.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13499.0</v>
+        <v>15657.0</v>
       </c>
       <c r="B65" t="n">
-        <v>5669.0</v>
+        <v>7049.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>14250.0</v>
+        <v>16301.0</v>
       </c>
       <c r="B66" t="n">
-        <v>5892.0</v>
+        <v>7238.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>15150.0</v>
+        <v>17534.0</v>
       </c>
       <c r="B67" t="n">
-        <v>6378.0</v>
+        <v>7459.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>15679.0</v>
+        <v>18115.0</v>
       </c>
       <c r="B68" t="n">
-        <v>6120.0</v>
+        <v>7334.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13690.0</v>
+        <v>19244.0</v>
       </c>
       <c r="B69" t="n">
-        <v>6462.0</v>
+        <v>7587.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>12587.0</v>
+        <v>19891.0</v>
       </c>
       <c r="B70" t="n">
-        <v>6875.0</v>
+        <v>7679.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17145.0</v>
+        <v>19328.0</v>
       </c>
       <c r="B71" t="n">
-        <v>6917.0</v>
+        <v>8080.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>15178.0</v>
+        <v>17664.0</v>
       </c>
       <c r="B72" t="n">
-        <v>6414.0</v>
+        <v>8003.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>15788.0</v>
+        <v>18439.0</v>
       </c>
       <c r="B73" t="n">
-        <v>6629.0</v>
+        <v>8356.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>16938.0</v>
+        <v>19110.0</v>
       </c>
       <c r="B74" t="n">
-        <v>7011.0</v>
+        <v>8397.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>17352.0</v>
+        <v>19705.0</v>
       </c>
       <c r="B75" t="n">
-        <v>7076.0</v>
+        <v>8106.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>14949.0</v>
+        <v>21087.0</v>
       </c>
       <c r="B76" t="n">
-        <v>7264.0</v>
+        <v>8367.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13745.0</v>
+        <v>21274.0</v>
       </c>
       <c r="B77" t="n">
-        <v>7671.0</v>
+        <v>8570.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>18609.0</v>
+        <v>20657.0</v>
       </c>
       <c r="B78" t="n">
-        <v>7836.0</v>
+        <v>8657.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>16212.0</v>
+        <v>18295.0</v>
       </c>
       <c r="B79" t="n">
-        <v>7206.0</v>
+        <v>8718.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16547.0</v>
+        <v>18986.0</v>
       </c>
       <c r="B80" t="n">
-        <v>7360.0</v>
+        <v>9125.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>17521.0</v>
+        <v>19636.0</v>
       </c>
       <c r="B81" t="n">
-        <v>7777.0</v>
+        <v>8789.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>18091.0</v>
+        <v>20123.0</v>
       </c>
       <c r="B82" t="n">
-        <v>7530.0</v>
+        <v>8537.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>15258.0</v>
+        <v>21320.0</v>
       </c>
       <c r="B83" t="n">
-        <v>7481.0</v>
+        <v>8641.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13817.0</v>
+        <v>21618.0</v>
       </c>
       <c r="B84" t="n">
-        <v>7820.0</v>
+        <v>8930.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18798.0</v>
+        <v>20412.0</v>
       </c>
       <c r="B85" t="n">
-        <v>8095.0</v>
+        <v>8845.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>16239.0</v>
+        <v>18232.0</v>
       </c>
       <c r="B86" t="n">
-        <v>7580.0</v>
+        <v>8908.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16702.0</v>
+        <v>19355.0</v>
       </c>
       <c r="B87" t="n">
-        <v>7441.0</v>
+        <v>8962.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>17438.0</v>
+        <v>19639.0</v>
       </c>
       <c r="B88" t="n">
-        <v>7750.0</v>
+        <v>8596.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>17701.0</v>
+        <v>19868.0</v>
       </c>
       <c r="B89" t="n">
-        <v>7595.0</v>
+        <v>8463.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>15155.0</v>
+        <v>21005.0</v>
       </c>
       <c r="B90" t="n">
-        <v>7709.0</v>
+        <v>8694.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13781.0</v>
+        <v>20993.0</v>
       </c>
       <c r="B91" t="n">
-        <v>7968.0</v>
+        <v>8898.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>18428.0</v>
+        <v>20111.0</v>
       </c>
       <c r="B92" t="n">
-        <v>8074.0</v>
+        <v>8695.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16306.0</v>
+        <v>17692.0</v>
       </c>
       <c r="B93" t="n">
-        <v>7468.0</v>
+        <v>8721.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>16432.0</v>
+        <v>18340.0</v>
       </c>
       <c r="B94" t="n">
-        <v>7533.0</v>
+        <v>8773.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>16915.0</v>
+        <v>19172.0</v>
       </c>
       <c r="B95" t="n">
-        <v>7731.0</v>
+        <v>8613.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>17641.0</v>
+        <v>18843.0</v>
       </c>
       <c r="B96" t="n">
-        <v>7469.0</v>
+        <v>8204.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>12424.0</v>
+        <v>20298.0</v>
       </c>
       <c r="B97" t="n">
-        <v>7331.0</v>
+        <v>8247.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13259.0</v>
+        <v>19188.0</v>
       </c>
       <c r="B98" t="n">
-        <v>7739.0</v>
+        <v>8336.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13980.0</v>
+        <v>13713.0</v>
       </c>
       <c r="B99" t="n">
-        <v>7530.0</v>
+        <v>8380.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12082.0</v>
+        <v>12503.0</v>
       </c>
       <c r="B100" t="n">
-        <v>6801.0</v>
+        <v>8250.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11423.0</v>
+        <v>12254.0</v>
       </c>
       <c r="B101" t="n">
-        <v>6536.0</v>
+        <v>7516.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10982.0</v>
+        <v>11784.0</v>
       </c>
       <c r="B102" t="n">
-        <v>5888.0</v>
+        <v>6502.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10927.0</v>
+        <v>11572.0</v>
       </c>
       <c r="B103" t="n">
-        <v>5544.0</v>
+        <v>5841.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9389.0</v>
+        <v>13868.0</v>
       </c>
       <c r="B104" t="n">
-        <v>5252.0</v>
+        <v>5421.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8489.0</v>
+        <v>12350.0</v>
       </c>
       <c r="B105" t="n">
-        <v>5194.0</v>
+        <v>5318.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11625.0</v>
+        <v>12093.0</v>
       </c>
       <c r="B106" t="n">
-        <v>5130.0</v>
+        <v>5072.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10373.0</v>
+        <v>11351.0</v>
       </c>
       <c r="B107" t="n">
-        <v>4603.0</v>
+        <v>5176.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10550.0</v>
+        <v>11717.0</v>
       </c>
       <c r="B108" t="n">
-        <v>4620.0</v>
+        <v>5170.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11197.0</v>
+        <v>12205.0</v>
       </c>
       <c r="B109" t="n">
-        <v>4715.0</v>
+        <v>5188.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>12072.0</v>
+        <v>12811.0</v>
       </c>
       <c r="B110" t="n">
-        <v>4658.0</v>
+        <v>5105.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10282.0</v>
+        <v>13437.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4989.0</v>
+        <v>5271.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9560.0</v>
+        <v>12776.0</v>
       </c>
       <c r="B112" t="n">
-        <v>5268.0</v>
+        <v>5538.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>13524.0</v>
+        <v>13736.0</v>
       </c>
       <c r="B113" t="n">
-        <v>5327.0</v>
+        <v>5586.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>12498.0</v>
+        <v>12465.0</v>
       </c>
       <c r="B114" t="n">
-        <v>5174.0</v>
+        <v>5512.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>12993.0</v>
+        <v>12845.0</v>
       </c>
       <c r="B115" t="n">
-        <v>5408.0</v>
+        <v>5740.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>13416.0</v>
+        <v>13505.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5311.0</v>
+        <v>5596.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14420.0</v>
+        <v>13691.0</v>
       </c>
       <c r="B117" t="n">
-        <v>5679.0</v>
+        <v>5573.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>12490.0</v>
+        <v>14699.0</v>
       </c>
       <c r="B118" t="n">
-        <v>5807.0</v>
+        <v>5730.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11461.0</v>
+        <v>14329.0</v>
       </c>
       <c r="B119" t="n">
-        <v>6351.0</v>
+        <v>5986.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>16509.0</v>
+        <v>15184.0</v>
       </c>
       <c r="B120" t="n">
-        <v>6541.0</v>
+        <v>6052.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>15161.0</v>
+        <v>13613.0</v>
       </c>
       <c r="B121" t="n">
-        <v>6368.0</v>
+        <v>6114.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>15563.0</v>
+        <v>14274.0</v>
       </c>
       <c r="B122" t="n">
-        <v>6429.0</v>
+        <v>6248.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>16464.0</v>
+        <v>14637.0</v>
       </c>
       <c r="B123" t="n">
-        <v>6550.0</v>
+        <v>6193.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>17726.0</v>
+        <v>15251.0</v>
       </c>
       <c r="B124" t="n">
-        <v>6736.0</v>
+        <v>6131.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>15604.0</v>
+        <v>16091.0</v>
       </c>
       <c r="B125" t="n">
-        <v>7299.0</v>
+        <v>6446.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>14186.0</v>
+        <v>15541.0</v>
       </c>
       <c r="B126" t="n">
-        <v>7891.0</v>
+        <v>6524.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>20024.0</v>
+        <v>16648.0</v>
       </c>
       <c r="B127" t="n">
-        <v>8021.0</v>
+        <v>6671.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>18525.0</v>
+        <v>15281.0</v>
       </c>
       <c r="B128" t="n">
-        <v>7907.0</v>
+        <v>6792.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>19579.0</v>
+        <v>15500.0</v>
       </c>
       <c r="B129" t="n">
-        <v>7995.0</v>
+        <v>6758.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>20422.0</v>
+        <v>16021.0</v>
       </c>
       <c r="B130" t="n">
-        <v>8128.0</v>
+        <v>6856.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>22204.0</v>
+        <v>16675.0</v>
       </c>
       <c r="B131" t="n">
-        <v>8488.0</v>
+        <v>6854.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>19668.0</v>
+        <v>17723.0</v>
       </c>
       <c r="B132" t="n">
-        <v>9371.0</v>
+        <v>6895.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>17627.0</v>
+        <v>17545.0</v>
       </c>
       <c r="B133" t="n">
-        <v>9923.0</v>
+        <v>7239.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>24394.0</v>
+        <v>18423.0</v>
       </c>
       <c r="B134" t="n">
-        <v>10110.0</v>
+        <v>7499.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>22088.0</v>
+        <v>16733.0</v>
       </c>
       <c r="B135" t="n">
-        <v>10070.0</v>
+        <v>7551.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>23470.0</v>
+        <v>17061.0</v>
       </c>
       <c r="B136" t="n">
-        <v>9888.0</v>
+        <v>7578.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>24480.0</v>
+        <v>17648.0</v>
       </c>
       <c r="B137" t="n">
-        <v>9976.0</v>
+        <v>7416.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>26322.0</v>
+        <v>18093.0</v>
       </c>
       <c r="B138" t="n">
-        <v>10551.0</v>
+        <v>7497.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>22963.0</v>
+        <v>19218.0</v>
       </c>
       <c r="B139" t="n">
-        <v>11046.0</v>
+        <v>7763.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>20855.0</v>
+        <v>18943.0</v>
       </c>
       <c r="B140" t="n">
-        <v>11805.0</v>
+        <v>7981.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28188.0</v>
+        <v>19956.0</v>
       </c>
       <c r="B141" t="n">
-        <v>11690.0</v>
+        <v>8363.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24959.0</v>
+        <v>18266.0</v>
       </c>
       <c r="B142" t="n">
-        <v>11607.0</v>
+        <v>8347.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>26200.0</v>
+        <v>18701.0</v>
       </c>
       <c r="B143" t="n">
-        <v>11304.0</v>
+        <v>8332.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>27370.0</v>
+        <v>19111.0</v>
       </c>
       <c r="B144" t="n">
-        <v>11488.0</v>
+        <v>8464.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>28944.0</v>
+        <v>19813.0</v>
       </c>
       <c r="B145" t="n">
-        <v>11781.0</v>
+        <v>8355.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>25567.0</v>
+        <v>21261.0</v>
       </c>
       <c r="B146" t="n">
-        <v>12761.0</v>
+        <v>8750.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22623.0</v>
+        <v>20590.0</v>
       </c>
       <c r="B147" t="n">
-        <v>13508.0</v>
+        <v>8753.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>30188.0</v>
+        <v>21343.0</v>
       </c>
       <c r="B148" t="n">
-        <v>13224.0</v>
+        <v>9047.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>26572.0</v>
+        <v>19383.0</v>
       </c>
       <c r="B149" t="n">
-        <v>12811.0</v>
+        <v>9280.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22244.0</v>
+        <v>15103.0</v>
       </c>
       <c r="B150" t="n">
-        <v>12624.0</v>
+        <v>9280.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22653.0</v>
+        <v>15239.0</v>
       </c>
       <c r="B151" t="n">
-        <v>11567.0</v>
+        <v>8959.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22224.0</v>
+        <v>14982.0</v>
       </c>
       <c r="B152" t="n">
-        <v>11570.0</v>
+        <v>8751.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>17514.0</v>
+        <v>19767.0</v>
       </c>
       <c r="B153" t="n">
-        <v>11656.0</v>
+        <v>8146.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>16895.0</v>
+        <v>17036.0</v>
       </c>
       <c r="B154" t="n">
-        <v>11254.0</v>
+        <v>7842.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>13919.0</v>
+        <v>14734.0</v>
       </c>
       <c r="B155" t="n">
-        <v>10210.0</v>
+        <v>7570.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11130.0</v>
+        <v>12217.0</v>
       </c>
       <c r="B156" t="n">
-        <v>9013.0</v>
+        <v>7293.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>14703.0</v>
+        <v>14432.0</v>
       </c>
       <c r="B157" t="n">
-        <v>7521.0</v>
+        <v>6687.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>12195.0</v>
+        <v>12621.0</v>
       </c>
       <c r="B158" t="n">
-        <v>6766.0</v>
+        <v>6256.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10478.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B159" t="n">
-        <v>6225.0</v>
+        <v>6216.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8814.0</v>
+        <v>11175.0</v>
       </c>
       <c r="B160" t="n">
-        <v>5909.0</v>
+        <v>6080.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9046.0</v>
+        <v>11029.0</v>
       </c>
       <c r="B161" t="n">
-        <v>5866.0</v>
+        <v>5808.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>11544.0</v>
+        <v>11202.0</v>
       </c>
       <c r="B162" t="n">
-        <v>6014.0</v>
+        <v>5743.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12423.0</v>
+        <v>13342.0</v>
       </c>
       <c r="B163" t="n">
-        <v>5677.0</v>
+        <v>5393.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>12027.0</v>
+        <v>12944.0</v>
       </c>
       <c r="B164" t="n">
-        <v>5177.0</v>
+        <v>5310.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>12549.0</v>
+        <v>13742.0</v>
       </c>
       <c r="B165" t="n">
-        <v>4749.0</v>
+        <v>5228.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>13726.0</v>
+        <v>14409.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4884.0</v>
+        <v>5561.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>11595.0</v>
+        <v>16392.0</v>
       </c>
       <c r="B167" t="n">
-        <v>5462.0</v>
+        <v>6014.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>11648.0</v>
+        <v>15496.0</v>
       </c>
       <c r="B168" t="n">
-        <v>6088.0</v>
+        <v>6426.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16172.0</v>
+        <v>17319.0</v>
       </c>
       <c r="B169" t="n">
-        <v>6206.0</v>
+        <v>6917.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>14964.0</v>
+        <v>16560.0</v>
       </c>
       <c r="B170" t="n">
-        <v>6239.0</v>
+        <v>7338.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>15495.0</v>
+        <v>17396.0</v>
       </c>
       <c r="B171" t="n">
-        <v>6167.0</v>
+        <v>7423.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16601.0</v>
+        <v>18288.0</v>
       </c>
       <c r="B172" t="n">
-        <v>6133.0</v>
+        <v>7607.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>18194.0</v>
+        <v>19330.0</v>
       </c>
       <c r="B173" t="n">
-        <v>6788.0</v>
+        <v>7940.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16491.0</v>
+        <v>21878.0</v>
       </c>
       <c r="B174" t="n">
-        <v>7489.0</v>
+        <v>8536.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>15115.0</v>
+        <v>22233.0</v>
       </c>
       <c r="B175" t="n">
-        <v>8169.0</v>
+        <v>8927.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>21265.0</v>
+        <v>21876.0</v>
       </c>
       <c r="B176" t="n">
-        <v>8179.0</v>
+        <v>9559.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>19656.0</v>
+        <v>21027.0</v>
       </c>
       <c r="B177" t="n">
-        <v>8196.0</v>
+        <v>9858.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>20718.0</v>
+        <v>22567.0</v>
       </c>
       <c r="B178" t="n">
-        <v>8271.0</v>
+        <v>10113.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>21911.0</v>
+        <v>23515.0</v>
       </c>
       <c r="B179" t="n">
-        <v>8388.0</v>
+        <v>10115.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>23787.0</v>
+        <v>24614.0</v>
       </c>
       <c r="B180" t="n">
-        <v>9031.0</v>
+        <v>10934.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>21591.0</v>
+        <v>27935.0</v>
       </c>
       <c r="B181" t="n">
-        <v>10055.0</v>
+        <v>11360.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>19317.0</v>
+        <v>28995.0</v>
       </c>
       <c r="B182" t="n">
-        <v>10871.0</v>
+        <v>11966.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>26494.0</v>
+        <v>27121.0</v>
       </c>
       <c r="B183" t="n">
-        <v>10781.0</v>
+        <v>12285.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>24417.0</v>
+        <v>25850.0</v>
       </c>
       <c r="B184" t="n">
-        <v>10625.0</v>
+        <v>12759.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>25605.0</v>
+        <v>27140.0</v>
       </c>
       <c r="B185" t="n">
-        <v>10726.0</v>
+        <v>12670.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>26794.0</v>
+        <v>28118.0</v>
       </c>
       <c r="B186" t="n">
-        <v>10565.0</v>
+        <v>12585.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>29288.0</v>
+        <v>29541.0</v>
       </c>
       <c r="B187" t="n">
-        <v>11322.0</v>
+        <v>13262.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>25560.0</v>
+        <v>33944.0</v>
       </c>
       <c r="B188" t="n">
-        <v>12576.0</v>
+        <v>13950.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>23260.0</v>
+        <v>34706.0</v>
       </c>
       <c r="B189" t="n">
-        <v>13093.0</v>
+        <v>14321.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>31048.0</v>
+        <v>30714.0</v>
       </c>
       <c r="B190" t="n">
-        <v>12989.0</v>
+        <v>14973.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>27853.0</v>
+        <v>28801.0</v>
       </c>
       <c r="B191" t="n">
-        <v>12655.0</v>
+        <v>15518.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>28935.0</v>
+        <v>30079.0</v>
       </c>
       <c r="B192" t="n">
-        <v>12678.0</v>
+        <v>14723.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>30393.0</v>
+        <v>30895.0</v>
       </c>
       <c r="B193" t="n">
-        <v>12314.0</v>
+        <v>14594.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>32440.0</v>
+        <v>31365.0</v>
       </c>
       <c r="B194" t="n">
-        <v>13046.0</v>
+        <v>14948.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>28244.0</v>
+        <v>36418.0</v>
       </c>
       <c r="B195" t="n">
-        <v>14249.0</v>
+        <v>15500.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>25629.0</v>
+        <v>36605.0</v>
       </c>
       <c r="B196" t="n">
-        <v>15217.0</v>
+        <v>15707.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>33310.0</v>
+        <v>31603.0</v>
       </c>
       <c r="B197" t="n">
-        <v>14654.0</v>
+        <v>15859.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>29268.0</v>
+        <v>29189.0</v>
       </c>
       <c r="B198" t="n">
-        <v>14048.0</v>
+        <v>16293.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>29889.0</v>
+        <v>30794.0</v>
       </c>
       <c r="B199" t="n">
-        <v>13698.0</v>
+        <v>15661.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>30558.0</v>
+        <v>30962.0</v>
       </c>
       <c r="B200" t="n">
-        <v>13210.0</v>
+        <v>14978.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>32357.0</v>
+        <v>31173.0</v>
       </c>
       <c r="B201" t="n">
-        <v>13698.0</v>
+        <v>15159.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>28062.0</v>
+        <v>35651.0</v>
       </c>
       <c r="B202" t="n">
-        <v>14912.0</v>
+        <v>15578.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>25213.0</v>
+        <v>36630.0</v>
       </c>
       <c r="B203" t="n">
-        <v>15078.0</v>
+        <v>15450.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>32389.0</v>
+        <v>30679.0</v>
       </c>
       <c r="B204" t="n">
-        <v>14741.0</v>
+        <v>15987.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>28125.0</v>
+        <v>28072.0</v>
       </c>
       <c r="B205" t="n">
-        <v>14060.0</v>
+        <v>16032.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>28819.0</v>
+        <v>28868.0</v>
       </c>
       <c r="B206" t="n">
-        <v>13484.0</v>
+        <v>15128.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20594.0</v>
+        <v>32190.0</v>
       </c>
       <c r="B207" t="n">
-        <v>12777.0</v>
+        <v>14616.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>29579.0</v>
+        <v>29641.0</v>
       </c>
       <c r="B208" t="n">
-        <v>12577.0</v>
+        <v>14562.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>21826.0</v>
+        <v>27957.0</v>
       </c>
       <c r="B209" t="n">
-        <v>13045.0</v>
+        <v>14627.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>19774.0</v>
+        <v>27478.0</v>
       </c>
       <c r="B210" t="n">
-        <v>13085.0</v>
+        <v>14527.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>25746.0</v>
+        <v>26217.0</v>
       </c>
       <c r="B211" t="n">
-        <v>11694.0</v>
+        <v>13266.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22578.0</v>
+        <v>23733.0</v>
       </c>
       <c r="B212" t="n">
-        <v>11165.0</v>
+        <v>13218.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>22838.0</v>
+        <v>24758.0</v>
       </c>
       <c r="B213" t="n">
-        <v>10753.0</v>
+        <v>12541.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>23338.0</v>
+        <v>24854.0</v>
       </c>
       <c r="B214" t="n">
-        <v>10456.0</v>
+        <v>12201.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>24420.0</v>
+        <v>25214.0</v>
       </c>
       <c r="B215" t="n">
-        <v>10590.0</v>
+        <v>12545.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20977.0</v>
+        <v>28348.0</v>
       </c>
       <c r="B216" t="n">
-        <v>11408.0</v>
+        <v>12757.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>19024.0</v>
+        <v>28674.0</v>
       </c>
       <c r="B217" t="n">
-        <v>11623.0</v>
+        <v>12344.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>25265.0</v>
+        <v>24953.0</v>
       </c>
       <c r="B218" t="n">
-        <v>10947.0</v>
+        <v>12648.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22387.0</v>
+        <v>22927.0</v>
       </c>
       <c r="B219" t="n">
-        <v>10673.0</v>
+        <v>12695.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>15626.0</v>
+        <v>24259.0</v>
       </c>
       <c r="B220" t="n">
-        <v>10248.0</v>
+        <v>11829.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21766.0</v>
+        <v>23131.0</v>
       </c>
       <c r="B221" t="n">
-        <v>9492.0</v>
+        <v>11053.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>20099.0</v>
+        <v>20788.0</v>
       </c>
       <c r="B222" t="n">
-        <v>9195.0</v>
+        <v>11186.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>16984.0</v>
+        <v>22758.0</v>
       </c>
       <c r="B223" t="n">
-        <v>9902.0</v>
+        <v>11143.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>14959.0</v>
+        <v>21905.0</v>
       </c>
       <c r="B224" t="n">
-        <v>9369.0</v>
+        <v>10865.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>20369.0</v>
+        <v>21104.0</v>
       </c>
       <c r="B225" t="n">
-        <v>9125.0</v>
+        <v>10344.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>18364.0</v>
+        <v>19215.0</v>
       </c>
       <c r="B226" t="n">
-        <v>8724.0</v>
+        <v>10392.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>18751.0</v>
+        <v>19840.0</v>
       </c>
       <c r="B227" t="n">
-        <v>8468.0</v>
+        <v>10099.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>18820.0</v>
+        <v>19688.0</v>
       </c>
       <c r="B228" t="n">
-        <v>8154.0</v>
+        <v>9583.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>19473.0</v>
+        <v>20211.0</v>
       </c>
       <c r="B229" t="n">
-        <v>8254.0</v>
+        <v>9779.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>16722.0</v>
+        <v>22252.0</v>
       </c>
       <c r="B230" t="n">
-        <v>8791.0</v>
+        <v>9959.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>15452.0</v>
+        <v>22715.0</v>
       </c>
       <c r="B231" t="n">
-        <v>9106.0</v>
+        <v>9731.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>20865.0</v>
+        <v>20390.0</v>
       </c>
       <c r="B232" t="n">
-        <v>8802.0</v>
+        <v>9984.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>18752.0</v>
+        <v>18426.0</v>
       </c>
       <c r="B233" t="n">
-        <v>8651.0</v>
+        <v>9886.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>15179.0</v>
+        <v>14311.0</v>
       </c>
       <c r="B234" t="n">
-        <v>8338.0</v>
+        <v>9583.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>14892.0</v>
+        <v>13999.0</v>
       </c>
       <c r="B235" t="n">
-        <v>7978.0</v>
+        <v>8782.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>14744.0</v>
+        <v>13347.0</v>
       </c>
       <c r="B236" t="n">
-        <v>7843.0</v>
+        <v>8289.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>11789.0</v>
+        <v>18166.0</v>
       </c>
       <c r="B237" t="n">
-        <v>7861.0</v>
+        <v>7959.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>11728.0</v>
+        <v>15872.0</v>
       </c>
       <c r="B238" t="n">
-        <v>7958.0</v>
+        <v>7347.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>12720.0</v>
+        <v>11007.0</v>
       </c>
       <c r="B239" t="n">
-        <v>7120.0</v>
+        <v>6988.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>11005.0</v>
+        <v>9912.0</v>
       </c>
       <c r="B240" t="n">
-        <v>6354.0</v>
+        <v>6590.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>10178.0</v>
+        <v>9376.0</v>
       </c>
       <c r="B241" t="n">
-        <v>5775.0</v>
+        <v>5845.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>9877.0</v>
+        <v>8991.0</v>
       </c>
       <c r="B242" t="n">
-        <v>5105.0</v>
+        <v>5454.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>9775.0</v>
+        <v>9011.0</v>
       </c>
       <c r="B243" t="n">
-        <v>5111.0</v>
+        <v>5170.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>8143.0</v>
+        <v>11355.0</v>
       </c>
       <c r="B244" t="n">
-        <v>5209.0</v>
+        <v>5014.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>7929.0</v>
+        <v>10022.0</v>
       </c>
       <c r="B245" t="n">
-        <v>4985.0</v>
+        <v>4597.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>10850.0</v>
+        <v>9406.0</v>
       </c>
       <c r="B246" t="n">
-        <v>4878.0</v>
+        <v>4325.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>9765.0</v>
+        <v>8985.0</v>
       </c>
       <c r="B247" t="n">
-        <v>4486.0</v>
+        <v>4204.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>9358.0</v>
+        <v>8961.0</v>
       </c>
       <c r="B248" t="n">
-        <v>4243.0</v>
+        <v>4127.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>9761.0</v>
+        <v>9206.0</v>
       </c>
       <c r="B249" t="n">
-        <v>4093.0</v>
+        <v>4316.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>9942.0</v>
+        <v>9579.0</v>
       </c>
       <c r="B250" t="n">
-        <v>4177.0</v>
+        <v>4122.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>8511.0</v>
+        <v>11050.0</v>
       </c>
       <c r="B251" t="n">
-        <v>4453.0</v>
+        <v>4358.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>8111.0</v>
+        <v>10329.0</v>
       </c>
       <c r="B252" t="n">
-        <v>4820.0</v>
+        <v>4429.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>11480.0</v>
+        <v>10614.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4763.0</v>
+        <v>4397.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>10422.0</v>
+        <v>9671.0</v>
       </c>
       <c r="B254" t="n">
-        <v>4538.0</v>
+        <v>4395.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>10477.0</v>
+        <v>10029.0</v>
       </c>
       <c r="B255" t="n">
-        <v>4400.0</v>
+        <v>4427.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>10737.0</v>
+        <v>9987.0</v>
       </c>
       <c r="B256" t="n">
-        <v>4476.0</v>
+        <v>4444.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>11169.0</v>
+        <v>10603.0</v>
       </c>
       <c r="B257" t="n">
-        <v>4540.0</v>
+        <v>4596.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>9454.0</v>
+        <v>11510.0</v>
       </c>
       <c r="B258" t="n">
-        <v>4866.0</v>
+        <v>4736.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8891.0</v>
+        <v>11293.0</v>
       </c>
       <c r="B259" t="n">
-        <v>5202.0</v>
+        <v>4757.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>12514.0</v>
+        <v>11603.0</v>
       </c>
       <c r="B260" t="n">
-        <v>5067.0</v>
+        <v>4769.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>11235.0</v>
+        <v>10559.0</v>
       </c>
       <c r="B261" t="n">
-        <v>4983.0</v>
+        <v>4862.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>11295.0</v>
+        <v>10542.0</v>
       </c>
       <c r="B262" t="n">
-        <v>4914.0</v>
+        <v>4753.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>11460.0</v>
+        <v>10915.0</v>
       </c>
       <c r="B263" t="n">
-        <v>4954.0</v>
+        <v>4899.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>11808.0</v>
+        <v>11009.0</v>
       </c>
       <c r="B264" t="n">
-        <v>4848.0</v>
+        <v>4945.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>10276.0</v>
+        <v>11768.0</v>
       </c>
       <c r="B265" t="n">
-        <v>5198.0</v>
+        <v>5095.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>9029.0</v>
+        <v>11725.0</v>
       </c>
       <c r="B266" t="n">
-        <v>5555.0</v>
+        <v>5055.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>13076.0</v>
+        <v>11726.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5533.0</v>
+        <v>5121.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>11825.0</v>
+        <v>11027.0</v>
       </c>
       <c r="B268" t="n">
-        <v>5273.0</v>
+        <v>5126.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>11845.0</v>
+        <v>10982.0</v>
       </c>
       <c r="B269" t="n">
-        <v>5125.0</v>
+        <v>5067.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>11844.0</v>
+        <v>11046.0</v>
       </c>
       <c r="B270" t="n">
-        <v>5088.0</v>
+        <v>5074.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>12383.0</v>
+        <v>11481.0</v>
       </c>
       <c r="B271" t="n">
-        <v>5080.0</v>
+        <v>5024.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>10606.0</v>
+        <v>12042.0</v>
       </c>
       <c r="B272" t="n">
-        <v>5443.0</v>
+        <v>5180.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>9514.0</v>
+        <v>12190.0</v>
       </c>
       <c r="B273" t="n">
-        <v>5724.0</v>
+        <v>5280.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>9176.0</v>
+        <v>11343.0</v>
       </c>
       <c r="B274" t="n">
-        <v>5656.0</v>
+        <v>5100.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>12465.0</v>
+        <v>11387.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5516.0</v>
+        <v>5323.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>10818.0</v>
+        <v>10329.0</v>
       </c>
       <c r="B276" t="n">
-        <v>5120.0</v>
+        <v>5007.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>10413.0</v>
+        <v>10503.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4777.0</v>
+        <v>4913.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>10752.0</v>
+        <v>10852.0</v>
       </c>
       <c r="B278" t="n">
-        <v>4749.0</v>
+        <v>4835.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>8923.0</v>
+        <v>11040.0</v>
       </c>
       <c r="B279" t="n">
-        <v>4664.0</v>
+        <v>4971.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>8058.0</v>
+        <v>10708.0</v>
       </c>
       <c r="B280" t="n">
-        <v>4942.0</v>
+        <v>4995.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>12070.0</v>
+        <v>11794.0</v>
       </c>
       <c r="B281" t="n">
-        <v>5078.0</v>
+        <v>5008.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>7544.0</v>
+        <v>9882.0</v>
       </c>
       <c r="B282" t="n">
-        <v>5013.0</v>
+        <v>4954.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>10918.0</v>
+        <v>11193.0</v>
       </c>
       <c r="B283" t="n">
-        <v>4731.0</v>
+        <v>4880.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>9919.0</v>
+        <v>10511.0</v>
       </c>
       <c r="B284" t="n">
-        <v>4632.0</v>
+        <v>4735.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>10097.0</v>
+        <v>10438.0</v>
       </c>
       <c r="B285" t="n">
-        <v>4313.0</v>
+        <v>4637.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>8401.0</v>
+        <v>10937.0</v>
       </c>
       <c r="B286" t="n">
-        <v>4385.0</v>
+        <v>4899.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>7561.0</v>
+        <v>10556.0</v>
       </c>
       <c r="B287" t="n">
-        <v>4633.0</v>
+        <v>4865.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>10753.0</v>
+        <v>11674.0</v>
       </c>
       <c r="B288" t="n">
-        <v>4633.0</v>
+        <v>4836.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>9793.0</v>
+        <v>10852.0</v>
       </c>
       <c r="B289" t="n">
-        <v>4401.0</v>
+        <v>4831.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>10140.0</v>
+        <v>10940.0</v>
       </c>
       <c r="B290" t="n">
-        <v>4242.0</v>
+        <v>4868.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>10337.0</v>
+        <v>11224.0</v>
       </c>
       <c r="B291" t="n">
-        <v>4448.0</v>
+        <v>4932.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10577.0</v>
+        <v>11675.0</v>
       </c>
       <c r="B292" t="n">
-        <v>4468.0</v>
+        <v>4941.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>8985.0</v>
+        <v>12009.0</v>
       </c>
       <c r="B293" t="n">
-        <v>4460.0</v>
+        <v>5013.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>8260.0</v>
+        <v>12071.0</v>
       </c>
       <c r="B294" t="n">
-        <v>4849.0</v>
+        <v>5156.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>11627.0</v>
+        <v>12360.0</v>
       </c>
       <c r="B295" t="n">
-        <v>4858.0</v>
+        <v>5258.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>10521.0</v>
+        <v>11465.0</v>
       </c>
       <c r="B296" t="n">
-        <v>4600.0</v>
+        <v>5210.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>10365.0</v>
+        <v>11574.0</v>
       </c>
       <c r="B297" t="n">
-        <v>4756.0</v>
+        <v>5441.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>11041.0</v>
+        <v>11834.0</v>
       </c>
       <c r="B298" t="n">
-        <v>4763.0</v>
+        <v>5178.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>11174.0</v>
+        <v>11908.0</v>
       </c>
       <c r="B299" t="n">
-        <v>4606.0</v>
+        <v>5064.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>9395.0</v>
+        <v>12510.0</v>
       </c>
       <c r="B300" t="n">
-        <v>4681.0</v>
+        <v>5324.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>8721.0</v>
+        <v>12504.0</v>
       </c>
       <c r="B301" t="n">
-        <v>5105.0</v>
+        <v>5465.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>12040.0</v>
+        <v>12489.0</v>
       </c>
       <c r="B302" t="n">
-        <v>5155.0</v>
+        <v>5536.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>10700.0</v>
+        <v>11450.0</v>
       </c>
       <c r="B303" t="n">
-        <v>4853.0</v>
+        <v>5345.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>10906.0</v>
+        <v>11686.0</v>
       </c>
       <c r="B304" t="n">
-        <v>4720.0</v>
+        <v>5492.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>9312.0</v>
+        <v>9085.0</v>
       </c>
       <c r="B305" t="n">
-        <v>4950.0</v>
+        <v>5245.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>9333.0</v>
+        <v>9196.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4735.0</v>
+        <v>5111.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>7670.0</v>
+        <v>12252.0</v>
       </c>
       <c r="B307" t="n">
-        <v>4791.0</v>
+        <v>5036.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>7724.0</v>
+        <v>10889.0</v>
       </c>
       <c r="B308" t="n">
-        <v>4661.0</v>
+        <v>4833.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>8681.0</v>
+        <v>8419.0</v>
       </c>
       <c r="B309" t="n">
-        <v>4755.0</v>
+        <v>4768.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>7494.0</v>
+        <v>7648.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4024.0</v>
+        <v>4721.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>7306.0</v>
+        <v>7557.0</v>
       </c>
       <c r="B311" t="n">
-        <v>3894.0</v>
+        <v>4368.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>7278.0</v>
+        <v>7261.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3694.0</v>
+        <v>3892.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>7163.0</v>
+        <v>7326.0</v>
       </c>
       <c r="B313" t="n">
-        <v>3397.0</v>
+        <v>3636.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>5377.0</v>
+        <v>8436.0</v>
       </c>
       <c r="B314" t="n">
-        <v>3368.0</v>
+        <v>3554.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>5846.0</v>
+        <v>7905.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3462.0</v>
+        <v>3437.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>5460.0</v>
+        <v>6960.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3259.0</v>
+        <v>3360.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>6178.0</v>
+        <v>6149.0</v>
       </c>
       <c r="B317" t="n">
-        <v>3073.0</v>
+        <v>3294.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5663.0</v>
+        <v>5451.0</v>
       </c>
       <c r="B318" t="n">
-        <v>2894.0</v>
+        <v>3146.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>5504.0</v>
+        <v>5623.0</v>
       </c>
       <c r="B319" t="n">
-        <v>2726.0</v>
+        <v>2992.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>5620.0</v>
+        <v>5703.0</v>
       </c>
       <c r="B320" t="n">
-        <v>2519.0</v>
+        <v>2727.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4207.0</v>
+        <v>6243.0</v>
       </c>
       <c r="B321" t="n">
-        <v>2453.0</v>
+        <v>2683.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>4744.0</v>
+        <v>6011.0</v>
       </c>
       <c r="B322" t="n">
-        <v>2533.0</v>
+        <v>2566.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5749.0</v>
+        <v>5572.0</v>
       </c>
       <c r="B323" t="n">
-        <v>2561.0</v>
+        <v>2609.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>5312.0</v>
+        <v>5048.0</v>
       </c>
       <c r="B324" t="n">
-        <v>2404.0</v>
+        <v>2584.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>5332.0</v>
+        <v>5080.0</v>
       </c>
       <c r="B325" t="n">
-        <v>2446.0</v>
+        <v>2466.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>5467.0</v>
+        <v>5071.0</v>
       </c>
       <c r="B326" t="n">
-        <v>2437.0</v>
+        <v>2509.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>5536.0</v>
+        <v>5054.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2322.0</v>
+        <v>2358.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>4376.0</v>
+        <v>5958.0</v>
       </c>
       <c r="B328" t="n">
-        <v>2259.0</v>
+        <v>2358.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>4778.0</v>
+        <v>5702.0</v>
       </c>
       <c r="B329" t="n">
-        <v>2551.0</v>
+        <v>2281.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>5673.0</v>
+        <v>4990.0</v>
       </c>
       <c r="B330" t="n">
-        <v>2522.0</v>
+        <v>2339.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>5212.0</v>
+        <v>4641.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2222.0</v>
+        <v>2253.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>5325.0</v>
+        <v>4653.0</v>
       </c>
       <c r="B332" t="n">
-        <v>2384.0</v>
+        <v>2386.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>5390.0</v>
+        <v>4855.0</v>
       </c>
       <c r="B333" t="n">
-        <v>2409.0</v>
+        <v>2167.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>5539.0</v>
+        <v>4691.0</v>
       </c>
       <c r="B334" t="n">
-        <v>2232.0</v>
+        <v>1993.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>4533.0</v>
+        <v>5578.0</v>
       </c>
       <c r="B335" t="n">
-        <v>2342.0</v>
+        <v>2056.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>4679.0</v>
+        <v>5235.0</v>
       </c>
       <c r="B336" t="n">
-        <v>2485.0</v>
+        <v>2108.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>4437.0</v>
+        <v>3745.0</v>
       </c>
       <c r="B337" t="n">
-        <v>2542.0</v>
+        <v>2138.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>3999.0</v>
+        <v>3576.0</v>
       </c>
       <c r="B338" t="n">
-        <v>2325.0</v>
+        <v>2139.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>3779.0</v>
+        <v>3375.0</v>
       </c>
       <c r="B339" t="n">
-        <v>2187.0</v>
+        <v>2094.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3515.0</v>
+        <v>3182.0</v>
       </c>
       <c r="B340" t="n">
-        <v>2035.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3308.0</v>
+        <v>3009.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1787.0</v>
+        <v>1669.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>3106.0</v>
+        <v>3728.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1607.0</v>
+        <v>1406.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>3020.0</v>
+        <v>3326.0</v>
       </c>
       <c r="B343" t="n">
-        <v>1551.0</v>
+        <v>1390.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2866.0</v>
+        <v>2527.0</v>
       </c>
       <c r="B344" t="n">
-        <v>1480.0</v>
+        <v>1322.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2801.0</v>
+        <v>2451.0</v>
       </c>
       <c r="B345" t="n">
-        <v>1389.0</v>
+        <v>1289.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2733.0</v>
+        <v>2336.0</v>
       </c>
       <c r="B346" t="n">
-        <v>1318.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2639.0</v>
+        <v>2315.0</v>
       </c>
       <c r="B347" t="n">
-        <v>1345.0</v>
+        <v>1122.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2553.0</v>
+        <v>2293.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1283.0</v>
+        <v>1038.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2681.0</v>
+        <v>2644.0</v>
       </c>
       <c r="B349" t="n">
-        <v>1218.0</v>
+        <v>1033.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2635.0</v>
+        <v>2544.0</v>
       </c>
       <c r="B350" t="n">
-        <v>1183.0</v>
+        <v>933.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2508.0</v>
+        <v>2171.0</v>
       </c>
       <c r="B351" t="n">
-        <v>1182.0</v>
+        <v>953.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2544.0</v>
+        <v>2196.0</v>
       </c>
       <c r="B352" t="n">
-        <v>1157.0</v>
+        <v>995.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2520.0</v>
+        <v>2121.0</v>
       </c>
       <c r="B353" t="n">
-        <v>1106.0</v>
+        <v>895.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2559.0</v>
+        <v>2206.0</v>
       </c>
       <c r="B354" t="n">
-        <v>1096.0</v>
+        <v>892.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2573.0</v>
+        <v>2166.0</v>
       </c>
       <c r="B355" t="n">
-        <v>1092.0</v>
+        <v>899.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2530.0</v>
+        <v>2541.0</v>
       </c>
       <c r="B356" t="n">
-        <v>1149.0</v>
+        <v>854.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2522.0</v>
+        <v>2452.0</v>
       </c>
       <c r="B357" t="n">
-        <v>1079.0</v>
+        <v>885.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2479.0</v>
+        <v>2066.0</v>
       </c>
       <c r="B358" t="n">
-        <v>1054.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2388.0</v>
+        <v>2201.0</v>
       </c>
       <c r="B359" t="n">
-        <v>1069.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2571.0</v>
+        <v>2158.0</v>
       </c>
       <c r="B360" t="n">
-        <v>1010.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2545.0</v>
+        <v>2093.0</v>
       </c>
       <c r="B361" t="n">
-        <v>1025.0</v>
+        <v>796.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2453.0</v>
+        <v>1960.0</v>
       </c>
       <c r="B362" t="n">
-        <v>1001.0</v>
+        <v>762.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2406.0</v>
+        <v>2180.0</v>
       </c>
       <c r="B363" t="n">
-        <v>1077.0</v>
+        <v>891.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2468.0</v>
+        <v>2054.0</v>
       </c>
       <c r="B364" t="n">
-        <v>1052.0</v>
+        <v>898.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2460.0</v>
+        <v>1788.0</v>
       </c>
       <c r="B365" t="n">
-        <v>1037.0</v>
+        <v>844.0</v>
       </c>
     </row>
   </sheetData>
